--- a/results/AdaBoostClassifier_RandomForestClassifier.xlsx
+++ b/results/AdaBoostClassifier_RandomForestClassifier.xlsx
@@ -493,160 +493,153 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
                 ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=4,
-                                                                     max_features='log2',
-                                                                     min_samples_leaf=2,
-                                                                     min_samples_split=5,
-                                                                     n_estimators=50,
+                 AdaBoostClassifier(estimator=RandomForestClassifier(class_weight='balanced',
+                                                                     max_depth=1,
+                                                                     min_samples_leaf=5,
+                                                                     n_estimators=10,
                                                                      random_state=42),
                                     n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7184761904761904</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 4, 'model__estimator__class_weight': None}</t>
+          <t>{'scaler': None, 'model__n_estimators': 10, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.588235294117647</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
+          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 1 1 1 1 1 1]</t>
+          <t>[0 1 1 0 1 0 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9795211263231648</v>
+        <v>0.9737619047619047</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006571836271595533</v>
+        <v>0.006782318122629813</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6334278378235908</v>
+        <v>0.5766666666666665</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08136423526059997</v>
+        <v>0.06543294592059903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', 'passthrough'),
                 ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=5,
+                 AdaBoostClassifier(estimator=RandomForestClassifier(class_weight='balanced',
+                                                                     max_depth=5,
                                                                      max_features='log2',
-                                                                     min_samples_split=1,
+                                                                     min_samples_split=4,
+                                                                     n_estimators=50,
+                                                                     random_state=42),
+                                    random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5809523809523809</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5714285714285715</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 0 0 0 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9792380952380952</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.006813451456477024</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5173333333333333</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.05400345214138303</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+                ('model',
+                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=1,
+                                                                     max_features='log2',
+                                                                     min_samples_leaf=5,
+                                                                     min_samples_split=4,
                                                                      n_estimators=50,
                                                                      random_state=42),
                                     n_estimators=5, random_state=42))])</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.7311428571428571</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 1, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6250000000000001</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 1 1 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9818941616644605</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.005693073313749934</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6427216786767549</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.06588597516862559</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=1,
-                                                                     min_samples_leaf=2,
-                                                                     n_estimators=5,
-                                                                     random_state=42),
-                                    n_estimators=10, random_state=42))])</t>
-        </is>
-      </c>
       <c r="B4" t="n">
-        <v>0.7247035212552455</v>
+        <v>0.5904761904761904</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+          <t>{'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 1 1 1 0 1 0]</t>
+          <t>[1 0 1 1 1 1 0 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9800270723656008</v>
+        <v>0.983452380952381</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005697314337864872</v>
+        <v>0.005501670243188103</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6363852205100652</v>
+        <v>0.5319999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09448858880614196</v>
+        <v>0.07232316098127996</v>
       </c>
     </row>
   </sheetData>

--- a/results/AdaBoostClassifier_RandomForestClassifier.xlsx
+++ b/results/AdaBoostClassifier_RandomForestClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,153 +493,260 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
-                ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(class_weight='balanced',
-                                                                     max_depth=1,
-                                                                     min_samples_leaf=5,
-                                                                     n_estimators=10,
-                                                                     random_state=42),
-                                    n_estimators=10, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'scaler': None, 'model__n_estimators': 10, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4615384615384615</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 1 0 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9737619047619047</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.006782318122629813</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5766666666666665</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.06543294592059903</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', 'passthrough'),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
                  AdaBoostClassifier(estimator=RandomForestClassifier(class_weight='balanced',
                                                                      max_depth=5,
                                                                      max_features='log2',
-                                                                     min_samples_split=4,
+                                                                     min_samples_leaf=5,
                                                                      n_estimators=50,
                                                                      random_state=42),
-                                    random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.5809523809523809</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5714285714285715</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 0 0 0 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9792380952380952</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.006813451456477024</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5173333333333333</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.05400345214138303</v>
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.657142857142857</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4615384615384615</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0 0 0 1 1 1 0 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>77</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9696503918022907</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.008136686480157019</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5723930078360459</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.05434431720975728</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
                 ('model',
                  AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=1,
                                                                      max_features='log2',
                                                                      min_samples_leaf=5,
                                                                      min_samples_split=4,
+                                                                     n_estimators=5,
+                                                                     random_state=42),
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9782581453634085</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.007066276457252609</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5020050125313283</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.08856185193123429</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+                ('model',
+                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=2,
+                                                                     min_samples_split=3,
+                                                                     n_estimators=5,
+                                                                     random_state=42),
+                                    n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6571428571428573</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.823529411764706</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9731481481481481</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.006601313070372444</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5294973544973545</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.08543319076137006</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64631970&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=5,
+                                                                     min_samples_leaf=3,
+                                                                     min_samples_split=5,
                                                                      n_estimators=50,
                                                                      random_state=42),
                                     n_estimators=5, random_state=42))])</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.5904761904761904</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.823529411764706</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.983452380952381</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.005501670243188103</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5319999999999999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.07232316098127996</v>
+      <c r="B5" t="n">
+        <v>0.6095238095238095</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6c09d0a0&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 0 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9845972957084069</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.005650381380085078</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5027630805408583</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.06999311855864526</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a647d0670&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=3,
+                                                                     max_features='log2',
+                                                                     min_samples_leaf=4,
+                                                                     min_samples_split=5,
+                                                                     n_estimators=50,
+                                                                     random_state=42),
+                                    n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6c0afb50&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 0 1 0 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9781599059376838</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.006286474816145809</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5279247501469724</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0874152984061609</v>
       </c>
     </row>
   </sheetData>

--- a/results/AdaBoostClassifier_RandomForestClassifier.xlsx
+++ b/results/AdaBoostClassifier_RandomForestClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,166 +493,169 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcd836112b0&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=2,
+                                                                     max_features='log2',
+                                                                     min_samples_leaf=4,
+                                                                     min_samples_split=6,
+                                                                     n_estimators=50,
+                                                                     random_state=42),
+                                    n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6054578754578755</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcd74832b20&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7777777777777777</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>42</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.963388146460509</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.008015262360102009</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.504378982455453</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1656210155976709</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcd831be850&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=5,
+                                                                     min_samples_leaf=3,
+                                                                     n_estimators=50,
+                                                                     random_state=42),
+                                    n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7151282051282051</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd06241c0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9768272142046263</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.006231156196435349</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6434623512108806</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1064567479302091</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcd831be760&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=6,
+                                                                     min_samples_split=5,
+                                                                     n_estimators=10,
+                                                                     random_state=42),
+                                    n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7096703296703296</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcd74848220&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 6, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5714285714285715</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 0 1 0 1 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.975502057986819</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.006281989149094299</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6328532067605598</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1068730213246502</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
                  SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
                                                      random_state=42))),
                 ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(class_weight='balanced',
-                                                                     max_depth=5,
-                                                                     max_features='log2',
-                                                                     min_samples_leaf=5,
-                                                                     n_estimators=50,
-                                                                     random_state=42),
-                                    n_estimators=10, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.657142857142857</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4615384615384615</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0 0 0 1 1 1 0 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>77</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9696503918022907</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.008136686480157019</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5723930078360459</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.05434431720975728</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
-                ('model',
                  AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=1,
                                                                      max_features='log2',
-                                                                     min_samples_leaf=5,
-                                                                     min_samples_split=4,
-                                                                     n_estimators=5,
-                                                                     random_state=42),
-                                    n_estimators=10, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6666666666666665</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9782581453634085</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.007066276457252609</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5020050125313283</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.08856185193123429</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
-                ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=2,
-                                                                     min_samples_split=3,
-                                                                     n_estimators=5,
-                                                                     random_state=42),
-                                    n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6571428571428573</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.823529411764706</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9731481481481481</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.006601313070372444</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5294973544973545</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.08543319076137006</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64631970&gt;),
-                ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=5,
-                                                                     min_samples_leaf=3,
+                                                                     min_samples_leaf=2,
                                                                      min_samples_split=5,
                                                                      n_estimators=50,
                                                                      random_state=42),
@@ -660,93 +663,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6095238095238095</v>
+        <v>0.7469306184012066</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6c09d0a0&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 1 1 1 1 0 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9845972957084069</v>
+        <v>0.9787003950449308</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005650381380085078</v>
+        <v>0.00512077476013837</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5027630805408583</v>
+        <v>0.6363464541993954</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06999311855864526</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a647d0670&gt;),
-                ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=3,
-                                                                     max_features='log2',
-                                                                     min_samples_leaf=4,
-                                                                     min_samples_split=5,
-                                                                     n_estimators=50,
-                                                                     random_state=42),
-                                    n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6c0afb50&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 0 1 0 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.9781599059376838</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.006286474816145809</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5279247501469724</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0874152984061609</v>
+        <v>0.1274961376372607</v>
       </c>
     </row>
   </sheetData>

--- a/results/AdaBoostClassifier_RandomForestClassifier.xlsx
+++ b/results/AdaBoostClassifier_RandomForestClassifier.xlsx
@@ -495,7 +495,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcd836112b0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f912436f5e0&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=2,
                                                                      max_features='log2',
@@ -511,7 +511,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcd74832b20&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91240aa880&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -548,7 +548,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcd831be850&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f91c788fb50&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=5,
                                                                      min_samples_leaf=3,
@@ -562,7 +562,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd06241c0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f912418a970&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -599,7 +599,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcd831be760&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f91c76e6400&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=6,
                                                                      min_samples_split=5,
@@ -613,7 +613,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcd74848220&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 6, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91243c6dc0&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 6, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">

--- a/results/AdaBoostClassifier_RandomForestClassifier.xlsx
+++ b/results/AdaBoostClassifier_RandomForestClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,42 +451,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
@@ -495,208 +515,322 @@
         <is>
           <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f912436f5e0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd5870d2520&gt;),
                 ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=2,
-                                                                     max_features='log2',
-                                                                     min_samples_leaf=4,
-                                                                     min_samples_split=6,
-                                                                     n_estimators=50,
+                 AdaBoostClassifier(estimator=RandomForestClassifier(class_weight='balanced',
+                                                                     max_depth=5,
+                                                                     min_samples_leaf=5,
+                                                                     min_samples_split=3,
+                                                                     n_estimators=10,
                                                                      random_state=42),
                                     n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6054578754578755</v>
+        <v>0.6272222222222222</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91240aa880&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae804eaf0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
-        </is>
+        <v>0.9682640794976755</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4874401598401598</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7692307692307692</v>
       </c>
       <c r="G2" t="n">
+        <v>0.9658699831844086</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5141277777777779</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9716190476190476</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4938000000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.963388146460509</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.008015262360102009</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.504378982455453</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1656210155976709</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91c788fb50&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd587201040&gt;),
                 ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=5,
-                                                                     min_samples_leaf=3,
+                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=1,
+                                                                     min_samples_split=3,
                                                                      n_estimators=50,
                                                                      random_state=42),
-                                    n_estimators=5, random_state=42))])</t>
+                                    n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7151282051282051</v>
+        <v>0.7188095238095238</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f912418a970&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae0740130&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>0.9800853338350305</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5438715395715396</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7346938775510204</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9783441375204359</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5432880952380953</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.98225</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5710000000000001</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.75</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 0 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 1 0 1 0 1 1 1 0 1 0 1 1 1 1 1 0 1 1 1 1 1 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9768272142046263</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.006231156196435349</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6434623512108806</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1064567479302091</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd587201160&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=RandomForestClassifier(class_weight='balanced',
+                                                                     max_depth=2,
+                                                                     max_features='log2',
+                                                                     min_samples_leaf=2,
+                                                                     min_samples_split=5,
+                                                                     n_estimators=5,
+                                                                     random_state=42),
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6483333333333334</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae07e5bb0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9809474275705904</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5615138472638473</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9806630676061177</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.553686507936508</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9815789473684211</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5927999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91c76e6400&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae07c4b20&gt;),
                 ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=6,
-                                                                     min_samples_split=5,
+                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=4,
+                                                                     max_features='log2',
+                                                                     min_samples_leaf=4,
+                                                                     min_samples_split=4,
+                                                                     n_estimators=10,
+                                                                     random_state=42),
+                                    random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7591666666666667</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae0721f40&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 4, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9839420677425053</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5723849539349538</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9804514400412999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5493825396825397</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9879761904761903</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 1 1 1 0 0 1 0 1 0 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae07c44c0&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=RandomForestClassifier(class_weight='balanced',
+                                                                     max_depth=1,
+                                                                     min_samples_split=4,
                                                                      n_estimators=10,
                                                                      random_state=42),
                                     n_estimators=5, random_state=42))])</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.7096703296703296</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91243c6dc0&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 6, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5714285714285715</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 0 1 0 1 1 0 0 0]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.975502057986819</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.006281989149094299</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6328532067605598</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1068730213246502</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=1,
-                                                                     max_features='log2',
-                                                                     min_samples_leaf=2,
-                                                                     min_samples_split=5,
-                                                                     n_estimators=50,
-                                                                     random_state=42),
-                                    n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7469306184012066</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>99</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9787003950449308</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.00512077476013837</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6363464541993954</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1274961376372607</v>
+      <c r="B6" t="n">
+        <v>0.6858333333333333</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae079dd00&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9765061680585703</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6088516705516706</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9719230552006616</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5541253968253969</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9820454545454546</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.6959999999999998</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 1 0 0 0 0 1 0 1 1 0 0 1 0 0 1 1 1 1 0 0 1 1 1 1 0 1 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/AdaBoostClassifier_RandomForestClassifier.xlsx
+++ b/results/AdaBoostClassifier_RandomForestClassifier.xlsx
@@ -515,60 +515,59 @@
         <is>
           <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd5870d2520&gt;),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(class_weight='balanced',
-                                                                     max_depth=5,
-                                                                     min_samples_leaf=5,
-                                                                     min_samples_split=3,
+                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=1,
+                                                                     min_samples_leaf=2,
                                                                      n_estimators=10,
                                                                      random_state=42),
                                     n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6272222222222222</v>
+        <v>0.6356809856809857</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae804eaf0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9682640794976755</v>
+        <v>0.9650100618908158</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4874401598401598</v>
+        <v>0.5596665279165279</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.7096774193548386</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9658699831844086</v>
+        <v>0.9641279004658485</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5141277777777779</v>
+        <v>0.5549948412698412</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9716190476190476</v>
+        <v>0.9668723404255321</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4938000000000001</v>
+        <v>0.5863333333333334</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.6875</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+          <t>[1 0 1 1 1 1 1 0 1 0 1 1 0 1 0 0 0 1 0 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -578,60 +577,62 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd587201040&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faaa3d730d0&gt;),
                 ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=1,
-                                                                     min_samples_split=3,
+                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=3,
+                                                                     max_features='log2',
+                                                                     min_samples_leaf=5,
+                                                                     min_samples_split=5,
                                                                      n_estimators=50,
                                                                      random_state=42),
-                                    n_estimators=10, random_state=42))])</t>
+                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7188095238095238</v>
+        <v>0.6490276390276389</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae0740130&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa0022e040&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9800853338350305</v>
+        <v>0.9772803325874193</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5438715395715396</v>
+        <v>0.5341145743145743</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.7222222222222223</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9783441375204359</v>
+        <v>0.9757917630066838</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5432880952380953</v>
+        <v>0.5882380952380953</v>
       </c>
       <c r="I3" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="J3" t="n">
-        <v>0.98225</v>
+        <v>0.9793191489361702</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5710000000000001</v>
+        <v>0.5111666666666668</v>
       </c>
       <c r="L3" t="n">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[1 0 0 1 1 0 1 0 1 1 1 0 1 0 1 1 1 1 1 0 1 1 1 1 1 1 0 1 0 1 0 1 1 1 0 1]</t>
+          <t>[1 1 1 1 1 1 0 1 1 1 1 0 0 0 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -643,61 +644,60 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd587201160&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f7e6460&gt;),
                 ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(class_weight='balanced',
-                                                                     max_depth=2,
+                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=2,
                                                                      max_features='log2',
-                                                                     min_samples_leaf=2,
+                                                                     min_samples_leaf=4,
                                                                      min_samples_split=5,
-                                                                     n_estimators=5,
+                                                                     n_estimators=50,
                                                                      random_state=42),
-                                    n_estimators=10, random_state=42))])</t>
+                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6483333333333334</v>
+        <v>0.6963347763347764</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae07e5bb0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa001ca4c0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9809474275705904</v>
+        <v>0.9768167183757286</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5615138472638473</v>
+        <v>0.5672153513153512</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5531914893617021</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9806630676061177</v>
+        <v>0.9761439665258788</v>
       </c>
       <c r="H4" t="n">
-        <v>0.553686507936508</v>
+        <v>0.5861103174603175</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9815789473684211</v>
+        <v>0.9779111111111112</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5927999999999999</v>
+        <v>0.5720000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0 1 1 1 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 1 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -707,62 +707,61 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae07c4b20&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f403190&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=4,
-                                                                     max_features='log2',
-                                                                     min_samples_leaf=4,
-                                                                     min_samples_split=4,
-                                                                     n_estimators=10,
+                                                                     min_samples_leaf=5,
+                                                                     min_samples_split=5,
+                                                                     n_estimators=50,
                                                                      random_state=42),
-                                    random_state=42))])</t>
+                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7591666666666667</v>
+        <v>0.7100399600399599</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae0721f40&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 4, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa00194130&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 4, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9839420677425053</v>
+        <v>0.9811003121169937</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5723849539349538</v>
+        <v>0.6072379342879342</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9804514400412999</v>
+        <v>0.9771391202975537</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5493825396825397</v>
+        <v>0.5746496031746031</v>
       </c>
       <c r="I5" t="n">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9879761904761903</v>
+        <v>0.9857755102040816</v>
       </c>
       <c r="K5" t="n">
-        <v>0.621</v>
+        <v>0.6613333333333332</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 1 1 1 0 0 1 0 1 0 1 1 0 1 1]</t>
+          <t>[0 1 1 1 1 1 0 0 0 0 1 1 0 0 1 0 0 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -774,10 +773,10 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae07c44c0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f73c0d0&gt;),
                 ('model',
-                 AdaBoostClassifier(estimator=RandomForestClassifier(class_weight='balanced',
-                                                                     max_depth=1,
+                 AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=1,
+                                                                     max_features='log2',
                                                                      min_samples_split=4,
                                                                      n_estimators=10,
                                                                      random_state=42),
@@ -785,48 +784,48 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6858333333333333</v>
+        <v>0.749069264069264</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae079dd00&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa0022e940&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9765061680585703</v>
+        <v>0.9726150643258477</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6088516705516706</v>
+        <v>0.6447921356421357</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9719230552006616</v>
+        <v>0.9715124453198313</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5541253968253969</v>
+        <v>0.6158626984126984</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9820454545454546</v>
+        <v>0.9746923076923076</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6959999999999998</v>
+        <v>0.6975</v>
       </c>
       <c r="L6" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 1 0 0 0 0 1 0 1 1 0 0 1 0 0 1 1 1 1 0 0 1 1 1 1 0 1 0 0 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">

--- a/results/AdaBoostClassifier_RandomForestClassifier.xlsx
+++ b/results/AdaBoostClassifier_RandomForestClassifier.xlsx
@@ -579,7 +579,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faaa3d730d0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd21f71ddf0&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=3,
                                                                      max_features='log2',
@@ -595,7 +595,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa0022e040&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd168288a00&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -644,7 +644,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f7e6460&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd15c433040&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=2,
                                                                      max_features='log2',
@@ -660,7 +660,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa001ca4c0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd15c1d8fd0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -709,7 +709,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f403190&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd15c5649d0&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=4,
                                                                      min_samples_leaf=5,
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa00194130&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 4, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd15c0fae20&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 4, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -773,7 +773,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f73c0d0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd15c573f70&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=RandomForestClassifier(max_depth=1,
                                                                      max_features='log2',
@@ -788,7 +788,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa0022e940&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd15c1f4070&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D6" t="n">
